--- a/attend_server/data.xlsx
+++ b/attend_server/data.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O85"/>
+  <dimension ref="A1:O83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -482,34 +482,34 @@
         <v/>
       </c>
       <c r="D3" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E3" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F3" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G3" t="str">
-        <v>未到</v>
+        <v/>
       </c>
       <c r="H3" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I3" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J3" t="str">
         <v>已到</v>
       </c>
       <c r="K3" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L3" t="str">
         <v/>
       </c>
       <c r="M3" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N3" t="str">
         <v/>
@@ -529,34 +529,34 @@
         <v/>
       </c>
       <c r="D4" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E4" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F4" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G4" t="str">
-        <v>未到</v>
+        <v/>
       </c>
       <c r="H4" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I4" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J4" t="str">
         <v>已到</v>
       </c>
       <c r="K4" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L4" t="str">
         <v/>
       </c>
       <c r="M4" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N4" t="str">
         <v/>
@@ -576,34 +576,34 @@
         <v/>
       </c>
       <c r="D5" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E5" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F5" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G5" t="str">
-        <v>未到</v>
+        <v/>
       </c>
       <c r="H5" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I5" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J5" t="str">
         <v>已到</v>
       </c>
       <c r="K5" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L5" t="str">
         <v/>
       </c>
       <c r="M5" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N5" t="str">
         <v/>
@@ -623,34 +623,34 @@
         <v/>
       </c>
       <c r="D6" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E6" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F6" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G6" t="str">
-        <v>请假</v>
+        <v/>
       </c>
       <c r="H6" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I6" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J6" t="str">
         <v>已到</v>
       </c>
       <c r="K6" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L6" t="str">
         <v/>
       </c>
       <c r="M6" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N6" t="str">
         <v/>
@@ -670,34 +670,34 @@
         <v/>
       </c>
       <c r="D7" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E7" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F7" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G7" t="str">
-        <v>请假</v>
+        <v/>
       </c>
       <c r="H7" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I7" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J7" t="str">
         <v>已到</v>
       </c>
       <c r="K7" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L7" t="str">
         <v/>
       </c>
       <c r="M7" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N7" t="str">
         <v/>
@@ -708,7 +708,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>付必成</v>
+        <v>邓媚</v>
       </c>
       <c r="B8" t="str">
         <v/>
@@ -717,34 +717,34 @@
         <v/>
       </c>
       <c r="D8" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E8" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F8" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G8" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H8" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I8" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J8" t="str">
         <v>已到</v>
       </c>
       <c r="K8" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L8" t="str">
         <v/>
       </c>
       <c r="M8" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N8" t="str">
         <v/>
@@ -755,7 +755,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>黄贤珍</v>
+        <v>付必成</v>
       </c>
       <c r="B9" t="str">
         <v/>
@@ -764,34 +764,34 @@
         <v/>
       </c>
       <c r="D9" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E9" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F9" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G9" t="str">
-        <v>请假</v>
+        <v/>
       </c>
       <c r="H9" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I9" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J9" t="str">
         <v>已到</v>
       </c>
       <c r="K9" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L9" t="str">
         <v/>
       </c>
       <c r="M9" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N9" t="str">
         <v/>
@@ -802,7 +802,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>韩云霞</v>
+        <v>黄贤珍</v>
       </c>
       <c r="B10" t="str">
         <v/>
@@ -811,34 +811,34 @@
         <v/>
       </c>
       <c r="D10" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E10" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F10" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G10" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H10" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I10" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J10" t="str">
         <v>已到</v>
       </c>
       <c r="K10" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L10" t="str">
         <v/>
       </c>
       <c r="M10" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N10" t="str">
         <v/>
@@ -849,7 +849,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>李艳</v>
+        <v>黄婉霞</v>
       </c>
       <c r="B11" t="str">
         <v/>
@@ -858,34 +858,34 @@
         <v/>
       </c>
       <c r="D11" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E11" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F11" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G11" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H11" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I11" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J11" t="str">
         <v>已到</v>
       </c>
       <c r="K11" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L11" t="str">
         <v/>
       </c>
       <c r="M11" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N11" t="str">
         <v/>
@@ -896,7 +896,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>李明霞</v>
+        <v>韩云霞</v>
       </c>
       <c r="B12" t="str">
         <v/>
@@ -905,34 +905,34 @@
         <v/>
       </c>
       <c r="D12" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E12" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F12" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G12" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H12" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I12" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J12" t="str">
         <v>已到</v>
       </c>
       <c r="K12" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L12" t="str">
         <v/>
       </c>
       <c r="M12" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N12" t="str">
         <v/>
@@ -943,7 +943,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>李广智</v>
+        <v>李艳</v>
       </c>
       <c r="B13" t="str">
         <v/>
@@ -952,34 +952,34 @@
         <v/>
       </c>
       <c r="D13" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E13" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F13" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G13" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H13" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I13" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J13" t="str">
         <v>已到</v>
       </c>
       <c r="K13" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L13" t="str">
         <v/>
       </c>
       <c r="M13" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N13" t="str">
         <v/>
@@ -990,7 +990,7 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>李震</v>
+        <v>李明霞</v>
       </c>
       <c r="B14" t="str">
         <v/>
@@ -999,34 +999,34 @@
         <v/>
       </c>
       <c r="D14" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E14" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F14" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G14" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H14" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I14" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J14" t="str">
         <v>已到</v>
       </c>
       <c r="K14" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L14" t="str">
         <v/>
       </c>
       <c r="M14" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N14" t="str">
         <v/>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>李传椿</v>
+        <v>李广智</v>
       </c>
       <c r="B15" t="str">
         <v/>
@@ -1046,34 +1046,34 @@
         <v/>
       </c>
       <c r="D15" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E15" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F15" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G15" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H15" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I15" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J15" t="str">
         <v>已到</v>
       </c>
       <c r="K15" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L15" t="str">
         <v/>
       </c>
       <c r="M15" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N15" t="str">
         <v/>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>李庆</v>
+        <v>李震</v>
       </c>
       <c r="B16" t="str">
         <v/>
@@ -1093,34 +1093,34 @@
         <v/>
       </c>
       <c r="D16" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E16" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F16" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G16" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H16" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I16" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J16" t="str">
         <v>已到</v>
       </c>
       <c r="K16" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L16" t="str">
         <v/>
       </c>
       <c r="M16" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N16" t="str">
         <v/>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>赖潼</v>
+        <v>李传椿</v>
       </c>
       <c r="B17" t="str">
         <v/>
@@ -1140,34 +1140,34 @@
         <v/>
       </c>
       <c r="D17" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E17" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F17" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G17" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H17" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I17" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J17" t="str">
         <v>已到</v>
       </c>
       <c r="K17" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L17" t="str">
         <v/>
       </c>
       <c r="M17" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N17" t="str">
         <v/>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>刘锦红</v>
+        <v>李庆</v>
       </c>
       <c r="B18" t="str">
         <v/>
@@ -1187,34 +1187,34 @@
         <v/>
       </c>
       <c r="D18" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E18" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F18" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G18" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H18" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I18" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J18" t="str">
         <v>已到</v>
       </c>
       <c r="K18" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L18" t="str">
         <v/>
       </c>
       <c r="M18" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N18" t="str">
         <v/>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>刘磊</v>
+        <v>赖潼</v>
       </c>
       <c r="B19" t="str">
         <v/>
@@ -1234,34 +1234,34 @@
         <v/>
       </c>
       <c r="D19" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E19" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F19" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G19" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H19" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I19" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J19" t="str">
         <v>已到</v>
       </c>
       <c r="K19" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L19" t="str">
         <v/>
       </c>
       <c r="M19" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N19" t="str">
         <v/>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>刘孪颖</v>
+        <v>刘锦红</v>
       </c>
       <c r="B20" t="str">
         <v/>
@@ -1281,34 +1281,34 @@
         <v/>
       </c>
       <c r="D20" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E20" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F20" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G20" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H20" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I20" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J20" t="str">
-        <v>未到</v>
+        <v>已到</v>
       </c>
       <c r="K20" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L20" t="str">
         <v/>
       </c>
       <c r="M20" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N20" t="str">
         <v/>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v xml:space="preserve"> 刘思琴</v>
+        <v>刘磊</v>
       </c>
       <c r="B21" t="str">
         <v/>
@@ -1328,34 +1328,34 @@
         <v/>
       </c>
       <c r="D21" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E21" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F21" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G21" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H21" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I21" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J21" t="str">
         <v>已到</v>
       </c>
       <c r="K21" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L21" t="str">
         <v/>
       </c>
       <c r="M21" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N21" t="str">
         <v/>
@@ -1366,7 +1366,7 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>罗佳</v>
+        <v>刘孪颖</v>
       </c>
       <c r="B22" t="str">
         <v/>
@@ -1375,34 +1375,34 @@
         <v/>
       </c>
       <c r="D22" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E22" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F22" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G22" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H22" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I22" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J22" t="str">
         <v>已到</v>
       </c>
       <c r="K22" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L22" t="str">
         <v/>
       </c>
       <c r="M22" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N22" t="str">
         <v/>
@@ -1413,7 +1413,7 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>吕彩飞</v>
+        <v xml:space="preserve"> 刘思琴</v>
       </c>
       <c r="B23" t="str">
         <v/>
@@ -1422,34 +1422,34 @@
         <v/>
       </c>
       <c r="D23" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E23" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F23" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G23" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H23" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I23" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J23" t="str">
         <v>已到</v>
       </c>
       <c r="K23" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L23" t="str">
         <v/>
       </c>
       <c r="M23" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N23" t="str">
         <v/>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>欧阳军</v>
+        <v>罗佳</v>
       </c>
       <c r="B24" t="str">
         <v/>
@@ -1469,34 +1469,34 @@
         <v/>
       </c>
       <c r="D24" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E24" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F24" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G24" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H24" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I24" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J24" t="str">
         <v>已到</v>
       </c>
       <c r="K24" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L24" t="str">
         <v/>
       </c>
       <c r="M24" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N24" t="str">
         <v/>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>彭欣</v>
+        <v>吕彩飞</v>
       </c>
       <c r="B25" t="str">
         <v/>
@@ -1516,34 +1516,34 @@
         <v/>
       </c>
       <c r="D25" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E25" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F25" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G25" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H25" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I25" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J25" t="str">
         <v>已到</v>
       </c>
       <c r="K25" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L25" t="str">
         <v/>
       </c>
       <c r="M25" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N25" t="str">
         <v/>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>邱小云</v>
+        <v>欧阳军</v>
       </c>
       <c r="B26" t="str">
         <v/>
@@ -1563,34 +1563,34 @@
         <v/>
       </c>
       <c r="D26" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E26" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F26" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G26" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H26" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I26" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J26" t="str">
         <v>已到</v>
       </c>
       <c r="K26" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L26" t="str">
         <v/>
       </c>
       <c r="M26" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N26" t="str">
         <v/>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>邱梦</v>
+        <v>彭欣</v>
       </c>
       <c r="B27" t="str">
         <v/>
@@ -1610,34 +1610,34 @@
         <v/>
       </c>
       <c r="D27" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E27" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F27" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G27" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H27" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I27" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J27" t="str">
         <v>已到</v>
       </c>
       <c r="K27" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L27" t="str">
         <v/>
       </c>
       <c r="M27" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N27" t="str">
         <v/>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>闵全明</v>
+        <v>邱小云</v>
       </c>
       <c r="B28" t="str">
         <v/>
@@ -1657,34 +1657,34 @@
         <v/>
       </c>
       <c r="D28" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E28" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F28" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G28" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H28" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I28" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J28" t="str">
         <v>已到</v>
       </c>
       <c r="K28" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L28" t="str">
         <v/>
       </c>
       <c r="M28" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N28" t="str">
         <v/>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>聂紫云</v>
+        <v>邱梦</v>
       </c>
       <c r="B29" t="str">
         <v/>
@@ -1704,34 +1704,34 @@
         <v/>
       </c>
       <c r="D29" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E29" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F29" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G29" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H29" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I29" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J29" t="str">
         <v>已到</v>
       </c>
       <c r="K29" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L29" t="str">
         <v/>
       </c>
       <c r="M29" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N29" t="str">
         <v/>
@@ -1742,7 +1742,7 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>眭明旻</v>
+        <v>闵全明</v>
       </c>
       <c r="B30" t="str">
         <v/>
@@ -1751,34 +1751,34 @@
         <v/>
       </c>
       <c r="D30" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E30" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F30" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G30" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H30" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I30" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J30" t="str">
         <v>已到</v>
       </c>
       <c r="K30" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L30" t="str">
         <v/>
       </c>
       <c r="M30" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N30" t="str">
         <v/>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>涂一平</v>
+        <v>聂紫云</v>
       </c>
       <c r="B31" t="str">
         <v/>
@@ -1798,34 +1798,34 @@
         <v/>
       </c>
       <c r="D31" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E31" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F31" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G31" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H31" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I31" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J31" t="str">
         <v>已到</v>
       </c>
       <c r="K31" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L31" t="str">
         <v/>
       </c>
       <c r="M31" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N31" t="str">
         <v/>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>唐林</v>
+        <v>眭明旻</v>
       </c>
       <c r="B32" t="str">
         <v/>
@@ -1845,34 +1845,34 @@
         <v/>
       </c>
       <c r="D32" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E32" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F32" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G32" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H32" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I32" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J32" t="str">
         <v>已到</v>
       </c>
       <c r="K32" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L32" t="str">
         <v/>
       </c>
       <c r="M32" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N32" t="str">
         <v/>
@@ -1883,7 +1883,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>邬晨珊</v>
+        <v>涂一平</v>
       </c>
       <c r="B33" t="str">
         <v/>
@@ -1892,34 +1892,34 @@
         <v/>
       </c>
       <c r="D33" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E33" t="str">
-        <v>未到</v>
+        <v/>
       </c>
       <c r="F33" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G33" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H33" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I33" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J33" t="str">
         <v>已到</v>
       </c>
       <c r="K33" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L33" t="str">
         <v/>
       </c>
       <c r="M33" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N33" t="str">
         <v/>
@@ -1930,7 +1930,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>吴坤钰</v>
+        <v>唐林</v>
       </c>
       <c r="B34" t="str">
         <v/>
@@ -1939,34 +1939,34 @@
         <v/>
       </c>
       <c r="D34" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E34" t="str">
-        <v>未到</v>
+        <v/>
       </c>
       <c r="F34" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G34" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H34" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I34" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J34" t="str">
         <v>已到</v>
       </c>
       <c r="K34" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L34" t="str">
         <v/>
       </c>
       <c r="M34" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N34" t="str">
         <v/>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v xml:space="preserve"> 吴荣光</v>
+        <v>邬晨珊</v>
       </c>
       <c r="B35" t="str">
         <v/>
@@ -1986,34 +1986,34 @@
         <v/>
       </c>
       <c r="D35" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E35" t="str">
-        <v>未到</v>
+        <v/>
       </c>
       <c r="F35" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G35" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H35" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I35" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J35" t="str">
         <v>已到</v>
       </c>
       <c r="K35" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L35" t="str">
         <v/>
       </c>
       <c r="M35" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N35" t="str">
         <v/>
@@ -2024,7 +2024,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v xml:space="preserve"> 王龙庆</v>
+        <v>吴坤钰</v>
       </c>
       <c r="B36" t="str">
         <v/>
@@ -2033,34 +2033,34 @@
         <v/>
       </c>
       <c r="D36" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E36" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F36" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G36" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H36" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I36" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J36" t="str">
         <v>已到</v>
       </c>
       <c r="K36" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L36" t="str">
         <v/>
       </c>
       <c r="M36" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N36" t="str">
         <v/>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>熊擎波</v>
+        <v xml:space="preserve"> 吴荣光</v>
       </c>
       <c r="B37" t="str">
         <v/>
@@ -2080,34 +2080,34 @@
         <v/>
       </c>
       <c r="D37" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E37" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F37" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G37" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H37" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I37" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J37" t="str">
         <v>已到</v>
       </c>
       <c r="K37" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L37" t="str">
         <v/>
       </c>
       <c r="M37" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N37" t="str">
         <v/>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v xml:space="preserve"> 熊璐</v>
+        <v xml:space="preserve"> 王龙庆</v>
       </c>
       <c r="B38" t="str">
         <v/>
@@ -2127,34 +2127,34 @@
         <v/>
       </c>
       <c r="D38" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E38" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F38" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G38" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H38" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I38" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J38" t="str">
         <v>已到</v>
       </c>
       <c r="K38" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L38" t="str">
         <v/>
       </c>
       <c r="M38" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N38" t="str">
         <v/>
@@ -2165,7 +2165,7 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>熊逸佳</v>
+        <v>熊擎波</v>
       </c>
       <c r="B39" t="str">
         <v/>
@@ -2174,34 +2174,34 @@
         <v/>
       </c>
       <c r="D39" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E39" t="str">
-        <v>请假</v>
+        <v/>
       </c>
       <c r="F39" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G39" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H39" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I39" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J39" t="str">
         <v>已到</v>
       </c>
       <c r="K39" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L39" t="str">
         <v/>
       </c>
       <c r="M39" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N39" t="str">
         <v/>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>肖 侃</v>
+        <v xml:space="preserve"> 熊璐</v>
       </c>
       <c r="B40" t="str">
         <v/>
@@ -2221,34 +2221,34 @@
         <v/>
       </c>
       <c r="D40" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E40" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F40" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G40" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H40" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I40" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J40" t="str">
         <v>已到</v>
       </c>
       <c r="K40" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L40" t="str">
         <v/>
       </c>
       <c r="M40" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N40" t="str">
         <v/>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>肖 静</v>
+        <v>熊逸佳</v>
       </c>
       <c r="B41" t="str">
         <v/>
@@ -2268,34 +2268,34 @@
         <v/>
       </c>
       <c r="D41" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E41" t="str">
-        <v>请假</v>
+        <v/>
       </c>
       <c r="F41" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G41" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H41" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I41" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J41" t="str">
         <v>已到</v>
       </c>
       <c r="K41" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L41" t="str">
         <v/>
       </c>
       <c r="M41" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N41" t="str">
         <v/>
@@ -2306,7 +2306,7 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>谢兰宁</v>
+        <v>肖 侃</v>
       </c>
       <c r="B42" t="str">
         <v/>
@@ -2315,34 +2315,34 @@
         <v/>
       </c>
       <c r="D42" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E42" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F42" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G42" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H42" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I42" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J42" t="str">
         <v>已到</v>
       </c>
       <c r="K42" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L42" t="str">
         <v/>
       </c>
       <c r="M42" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N42" t="str">
         <v/>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>徐小欢</v>
+        <v>肖 静</v>
       </c>
       <c r="B43" t="str">
         <v/>
@@ -2362,34 +2362,34 @@
         <v/>
       </c>
       <c r="D43" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E43" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F43" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G43" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H43" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I43" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J43" t="str">
         <v>已到</v>
       </c>
       <c r="K43" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L43" t="str">
         <v/>
       </c>
       <c r="M43" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N43" t="str">
         <v/>
@@ -2400,7 +2400,7 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>徐元明</v>
+        <v>谢兰宁</v>
       </c>
       <c r="B44" t="str">
         <v/>
@@ -2409,34 +2409,34 @@
         <v/>
       </c>
       <c r="D44" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E44" t="str">
-        <v>请假</v>
+        <v/>
       </c>
       <c r="F44" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G44" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H44" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I44" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J44" t="str">
         <v>已到</v>
       </c>
       <c r="K44" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L44" t="str">
         <v/>
       </c>
       <c r="M44" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N44" t="str">
         <v/>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v xml:space="preserve"> 喻方珍</v>
+        <v>徐小欢</v>
       </c>
       <c r="B45" t="str">
         <v/>
@@ -2456,34 +2456,34 @@
         <v/>
       </c>
       <c r="D45" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E45" t="str">
-        <v>未到</v>
+        <v/>
       </c>
       <c r="F45" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G45" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H45" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I45" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J45" t="str">
         <v>已到</v>
       </c>
       <c r="K45" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L45" t="str">
         <v/>
       </c>
       <c r="M45" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N45" t="str">
         <v/>
@@ -2494,7 +2494,7 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v xml:space="preserve"> 喻华新</v>
+        <v>徐元明</v>
       </c>
       <c r="B46" t="str">
         <v/>
@@ -2503,34 +2503,34 @@
         <v/>
       </c>
       <c r="D46" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E46" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F46" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G46" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H46" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I46" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J46" t="str">
         <v>已到</v>
       </c>
       <c r="K46" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L46" t="str">
         <v/>
       </c>
       <c r="M46" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N46" t="str">
         <v/>
@@ -2541,7 +2541,7 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v xml:space="preserve"> 余旋阳</v>
+        <v xml:space="preserve"> 喻方珍</v>
       </c>
       <c r="B47" t="str">
         <v/>
@@ -2550,34 +2550,34 @@
         <v/>
       </c>
       <c r="D47" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E47" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F47" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G47" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H47" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I47" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J47" t="str">
         <v>已到</v>
       </c>
       <c r="K47" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L47" t="str">
         <v/>
       </c>
       <c r="M47" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N47" t="str">
         <v/>
@@ -2588,7 +2588,7 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v xml:space="preserve"> 袁园</v>
+        <v xml:space="preserve"> 喻华新</v>
       </c>
       <c r="B48" t="str">
         <v/>
@@ -2597,34 +2597,34 @@
         <v/>
       </c>
       <c r="D48" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E48" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F48" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G48" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H48" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I48" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J48" t="str">
         <v>已到</v>
       </c>
       <c r="K48" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L48" t="str">
         <v/>
       </c>
       <c r="M48" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N48" t="str">
         <v/>
@@ -2635,7 +2635,7 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v xml:space="preserve"> 叶黎晨</v>
+        <v xml:space="preserve"> 余旋阳</v>
       </c>
       <c r="B49" t="str">
         <v/>
@@ -2644,34 +2644,34 @@
         <v/>
       </c>
       <c r="D49" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E49" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F49" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G49" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H49" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I49" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J49" t="str">
         <v>已到</v>
       </c>
       <c r="K49" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L49" t="str">
         <v/>
       </c>
       <c r="M49" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N49" t="str">
         <v/>
@@ -2682,7 +2682,7 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v xml:space="preserve"> 杨文萍</v>
+        <v xml:space="preserve"> 袁园</v>
       </c>
       <c r="B50" t="str">
         <v/>
@@ -2691,34 +2691,34 @@
         <v/>
       </c>
       <c r="D50" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E50" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F50" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G50" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H50" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I50" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J50" t="str">
         <v>已到</v>
       </c>
       <c r="K50" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L50" t="str">
         <v/>
       </c>
       <c r="M50" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N50" t="str">
         <v/>
@@ -2729,7 +2729,7 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>曾桂英</v>
+        <v xml:space="preserve"> 叶黎晨</v>
       </c>
       <c r="B51" t="str">
         <v/>
@@ -2738,34 +2738,34 @@
         <v/>
       </c>
       <c r="D51" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E51" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F51" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G51" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H51" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I51" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J51" t="str">
         <v>已到</v>
       </c>
       <c r="K51" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L51" t="str">
         <v/>
       </c>
       <c r="M51" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N51" t="str">
         <v/>
@@ -2776,7 +2776,7 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v xml:space="preserve"> 曾淑明</v>
+        <v xml:space="preserve"> 杨文萍</v>
       </c>
       <c r="B52" t="str">
         <v/>
@@ -2785,34 +2785,34 @@
         <v/>
       </c>
       <c r="D52" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E52" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F52" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G52" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H52" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I52" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J52" t="str">
         <v>已到</v>
       </c>
       <c r="K52" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L52" t="str">
         <v/>
       </c>
       <c r="M52" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N52" t="str">
         <v/>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>章坚</v>
+        <v>曾桂英</v>
       </c>
       <c r="B53" t="str">
         <v/>
@@ -2832,34 +2832,34 @@
         <v/>
       </c>
       <c r="D53" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E53" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F53" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G53" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H53" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I53" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J53" t="str">
         <v>已到</v>
       </c>
       <c r="K53" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L53" t="str">
         <v/>
       </c>
       <c r="M53" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N53" t="str">
         <v/>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v xml:space="preserve">张文斌 </v>
+        <v xml:space="preserve"> 曾淑明</v>
       </c>
       <c r="B54" t="str">
         <v/>
@@ -2879,34 +2879,34 @@
         <v/>
       </c>
       <c r="D54" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E54" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F54" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G54" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H54" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I54" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J54" t="str">
         <v>已到</v>
       </c>
       <c r="K54" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L54" t="str">
         <v/>
       </c>
       <c r="M54" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N54" t="str">
         <v/>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v xml:space="preserve">张骏 </v>
+        <v>章坚</v>
       </c>
       <c r="B55" t="str">
         <v/>
@@ -2926,34 +2926,34 @@
         <v/>
       </c>
       <c r="D55" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E55" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F55" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G55" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H55" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I55" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J55" t="str">
         <v>已到</v>
       </c>
       <c r="K55" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L55" t="str">
         <v/>
       </c>
       <c r="M55" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N55" t="str">
         <v/>
@@ -2964,7 +2964,7 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v xml:space="preserve">张兆辉 </v>
+        <v xml:space="preserve">张文斌 </v>
       </c>
       <c r="B56" t="str">
         <v/>
@@ -2973,34 +2973,34 @@
         <v/>
       </c>
       <c r="D56" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E56" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F56" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G56" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H56" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I56" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J56" t="str">
         <v>已到</v>
       </c>
       <c r="K56" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L56" t="str">
         <v/>
       </c>
       <c r="M56" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N56" t="str">
         <v/>
@@ -3011,7 +3011,7 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v xml:space="preserve">周清华 </v>
+        <v xml:space="preserve">张骏 </v>
       </c>
       <c r="B57" t="str">
         <v/>
@@ -3020,34 +3020,34 @@
         <v/>
       </c>
       <c r="D57" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E57" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F57" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G57" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H57" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I57" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J57" t="str">
         <v>已到</v>
       </c>
       <c r="K57" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L57" t="str">
         <v/>
       </c>
       <c r="M57" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N57" t="str">
         <v/>
@@ -3058,7 +3058,7 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>周绮漂</v>
+        <v xml:space="preserve">张兆辉 </v>
       </c>
       <c r="B58" t="str">
         <v/>
@@ -3067,34 +3067,34 @@
         <v/>
       </c>
       <c r="D58" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E58" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F58" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G58" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H58" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I58" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J58" t="str">
         <v>已到</v>
       </c>
       <c r="K58" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L58" t="str">
         <v/>
       </c>
       <c r="M58" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N58" t="str">
         <v/>
@@ -3105,7 +3105,7 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>占敏</v>
+        <v xml:space="preserve">周清华 </v>
       </c>
       <c r="B59" t="str">
         <v/>
@@ -3114,34 +3114,34 @@
         <v/>
       </c>
       <c r="D59" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E59" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F59" t="str">
-        <v>未到</v>
+        <v/>
       </c>
       <c r="G59" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H59" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I59" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J59" t="str">
-        <v>未到</v>
+        <v>已到</v>
       </c>
       <c r="K59" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L59" t="str">
         <v/>
       </c>
       <c r="M59" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N59" t="str">
         <v/>
@@ -3152,7 +3152,7 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>朱新立</v>
+        <v>周绮漂</v>
       </c>
       <c r="B60" t="str">
         <v/>
@@ -3161,34 +3161,34 @@
         <v/>
       </c>
       <c r="D60" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E60" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F60" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G60" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H60" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I60" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J60" t="str">
         <v>已到</v>
       </c>
       <c r="K60" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L60" t="str">
         <v/>
       </c>
       <c r="M60" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N60" t="str">
         <v/>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v xml:space="preserve"> 成锡东</v>
+        <v>占敏</v>
       </c>
       <c r="B61" t="str">
         <v/>
@@ -3208,34 +3208,34 @@
         <v/>
       </c>
       <c r="D61" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E61" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F61" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G61" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H61" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I61" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J61" t="str">
         <v>已到</v>
       </c>
       <c r="K61" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L61" t="str">
         <v/>
       </c>
       <c r="M61" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N61" t="str">
         <v/>
@@ -3246,7 +3246,7 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>王位云</v>
+        <v xml:space="preserve"> 成锡东</v>
       </c>
       <c r="B62" t="str">
         <v/>
@@ -3255,34 +3255,34 @@
         <v/>
       </c>
       <c r="D62" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E62" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F62" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G62" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H62" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I62" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J62" t="str">
         <v>已到</v>
       </c>
       <c r="K62" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L62" t="str">
         <v/>
       </c>
       <c r="M62" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N62" t="str">
         <v/>
@@ -3293,7 +3293,7 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v xml:space="preserve">何小虎 </v>
+        <v>王位云</v>
       </c>
       <c r="B63" t="str">
         <v/>
@@ -3302,34 +3302,34 @@
         <v/>
       </c>
       <c r="D63" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E63" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F63" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G63" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H63" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I63" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J63" t="str">
         <v>已到</v>
       </c>
       <c r="K63" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L63" t="str">
         <v/>
       </c>
       <c r="M63" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N63" t="str">
         <v/>
@@ -3340,7 +3340,7 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>熊智灵</v>
+        <v xml:space="preserve">何小虎 </v>
       </c>
       <c r="B64" t="str">
         <v/>
@@ -3349,34 +3349,34 @@
         <v/>
       </c>
       <c r="D64" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E64" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F64" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G64" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H64" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I64" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J64" t="str">
         <v>已到</v>
       </c>
       <c r="K64" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L64" t="str">
         <v/>
       </c>
       <c r="M64" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N64" t="str">
         <v/>
@@ -3387,7 +3387,7 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>杨美艳</v>
+        <v>熊智灵</v>
       </c>
       <c r="B65" t="str">
         <v/>
@@ -3396,34 +3396,34 @@
         <v/>
       </c>
       <c r="D65" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E65" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F65" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G65" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H65" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I65" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J65" t="str">
         <v>已到</v>
       </c>
       <c r="K65" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L65" t="str">
         <v/>
       </c>
       <c r="M65" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N65" t="str">
         <v/>
@@ -3434,7 +3434,7 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>杨文杰</v>
+        <v>杨美艳</v>
       </c>
       <c r="B66" t="str">
         <v/>
@@ -3443,34 +3443,34 @@
         <v/>
       </c>
       <c r="D66" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E66" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F66" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G66" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H66" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I66" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J66" t="str">
         <v>已到</v>
       </c>
       <c r="K66" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L66" t="str">
         <v/>
       </c>
       <c r="M66" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N66" t="str">
         <v/>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>杨茂</v>
+        <v>杨文杰</v>
       </c>
       <c r="B67" t="str">
         <v/>
@@ -3490,34 +3490,34 @@
         <v/>
       </c>
       <c r="D67" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E67" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F67" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G67" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H67" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I67" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J67" t="str">
         <v>已到</v>
       </c>
       <c r="K67" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L67" t="str">
         <v/>
       </c>
       <c r="M67" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N67" t="str">
         <v/>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>余凯乐</v>
+        <v>杨茂</v>
       </c>
       <c r="B68" t="str">
         <v/>
@@ -3537,34 +3537,34 @@
         <v/>
       </c>
       <c r="D68" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E68" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F68" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G68" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H68" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I68" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J68" t="str">
         <v>已到</v>
       </c>
       <c r="K68" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L68" t="str">
         <v/>
       </c>
       <c r="M68" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N68" t="str">
         <v/>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>刘安德</v>
+        <v>余凯乐</v>
       </c>
       <c r="B69" t="str">
         <v/>
@@ -3584,34 +3584,34 @@
         <v/>
       </c>
       <c r="D69" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E69" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F69" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G69" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H69" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I69" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J69" t="str">
         <v>已到</v>
       </c>
       <c r="K69" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L69" t="str">
         <v/>
       </c>
       <c r="M69" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N69" t="str">
         <v/>
@@ -3631,34 +3631,34 @@
         <v/>
       </c>
       <c r="D70" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E70" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F70" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G70" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H70" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I70" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J70" t="str">
         <v>已到</v>
       </c>
       <c r="K70" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L70" t="str">
         <v/>
       </c>
       <c r="M70" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N70" t="str">
         <v/>
@@ -3669,7 +3669,7 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v xml:space="preserve"> 宗越</v>
+        <v xml:space="preserve">张婷 </v>
       </c>
       <c r="B71" t="str">
         <v/>
@@ -3678,34 +3678,34 @@
         <v/>
       </c>
       <c r="D71" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E71" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F71" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G71" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H71" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I71" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J71" t="str">
         <v>已到</v>
       </c>
       <c r="K71" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L71" t="str">
         <v/>
       </c>
       <c r="M71" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N71" t="str">
         <v/>
@@ -3716,7 +3716,7 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v xml:space="preserve">张婷 </v>
+        <v xml:space="preserve"> 陈梦婷</v>
       </c>
       <c r="B72" t="str">
         <v/>
@@ -3725,34 +3725,34 @@
         <v/>
       </c>
       <c r="D72" t="str">
-        <v>请假</v>
+        <v/>
       </c>
       <c r="E72" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F72" t="str">
-        <v>请假</v>
+        <v/>
       </c>
       <c r="G72" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H72" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I72" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J72" t="str">
         <v>已到</v>
       </c>
       <c r="K72" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L72" t="str">
         <v/>
       </c>
       <c r="M72" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N72" t="str">
         <v/>
@@ -3763,7 +3763,7 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v xml:space="preserve"> 陈梦婷</v>
+        <v xml:space="preserve"> 吴春兰</v>
       </c>
       <c r="B73" t="str">
         <v/>
@@ -3772,34 +3772,34 @@
         <v/>
       </c>
       <c r="D73" t="str">
-        <v>请假</v>
+        <v/>
       </c>
       <c r="E73" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F73" t="str">
-        <v>请假</v>
+        <v/>
       </c>
       <c r="G73" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H73" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I73" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J73" t="str">
         <v>已到</v>
       </c>
       <c r="K73" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L73" t="str">
         <v/>
       </c>
       <c r="M73" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N73" t="str">
         <v/>
@@ -3810,7 +3810,7 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v xml:space="preserve"> 吴春兰</v>
+        <v xml:space="preserve"> 曾瑶</v>
       </c>
       <c r="B74" t="str">
         <v/>
@@ -3819,34 +3819,34 @@
         <v/>
       </c>
       <c r="D74" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E74" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F74" t="str">
-        <v>请假</v>
+        <v/>
       </c>
       <c r="G74" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H74" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I74" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J74" t="str">
         <v>已到</v>
       </c>
       <c r="K74" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L74" t="str">
         <v/>
       </c>
       <c r="M74" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N74" t="str">
         <v/>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v xml:space="preserve"> 曾瑶</v>
+        <v>刘明霞</v>
       </c>
       <c r="B75" t="str">
         <v/>
@@ -3866,34 +3866,34 @@
         <v/>
       </c>
       <c r="D75" t="str">
-        <v>未到</v>
+        <v/>
       </c>
       <c r="E75" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F75" t="str">
-        <v>请假</v>
+        <v/>
       </c>
       <c r="G75" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H75" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I75" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J75" t="str">
         <v>已到</v>
       </c>
       <c r="K75" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L75" t="str">
         <v/>
       </c>
       <c r="M75" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N75" t="str">
         <v/>
@@ -3904,7 +3904,7 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>刘明霞</v>
+        <v>谢蕴琦</v>
       </c>
       <c r="B76" t="str">
         <v/>
@@ -3913,34 +3913,34 @@
         <v/>
       </c>
       <c r="D76" t="str">
-        <v>未到</v>
+        <v/>
       </c>
       <c r="E76" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F76" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G76" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H76" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I76" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J76" t="str">
         <v>已到</v>
       </c>
       <c r="K76" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L76" t="str">
         <v/>
       </c>
       <c r="M76" t="str">
-        <v>未到</v>
+        <v/>
       </c>
       <c r="N76" t="str">
         <v/>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>谢蕴琦</v>
+        <v>罗雪婷</v>
       </c>
       <c r="B77" t="str">
         <v/>
@@ -3960,34 +3960,34 @@
         <v/>
       </c>
       <c r="D77" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E77" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F77" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G77" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H77" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I77" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J77" t="str">
         <v>已到</v>
       </c>
       <c r="K77" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L77" t="str">
         <v/>
       </c>
       <c r="M77" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N77" t="str">
         <v/>
@@ -3998,7 +3998,7 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>罗雪婷</v>
+        <v>石琴</v>
       </c>
       <c r="B78" t="str">
         <v/>
@@ -4007,34 +4007,34 @@
         <v/>
       </c>
       <c r="D78" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E78" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F78" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G78" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H78" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I78" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J78" t="str">
         <v>已到</v>
       </c>
       <c r="K78" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L78" t="str">
         <v/>
       </c>
       <c r="M78" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N78" t="str">
         <v/>
@@ -4045,7 +4045,7 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>石琴</v>
+        <v>万振东</v>
       </c>
       <c r="B79" t="str">
         <v/>
@@ -4054,34 +4054,34 @@
         <v/>
       </c>
       <c r="D79" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E79" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F79" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G79" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H79" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I79" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J79" t="str">
         <v>已到</v>
       </c>
       <c r="K79" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L79" t="str">
         <v/>
       </c>
       <c r="M79" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N79" t="str">
         <v/>
@@ -4092,7 +4092,7 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>万振东</v>
+        <v>李鹏</v>
       </c>
       <c r="B80" t="str">
         <v/>
@@ -4101,34 +4101,34 @@
         <v/>
       </c>
       <c r="D80" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E80" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F80" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G80" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H80" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I80" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J80" t="str">
         <v>已到</v>
       </c>
       <c r="K80" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L80" t="str">
         <v/>
       </c>
       <c r="M80" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N80" t="str">
         <v/>
@@ -4139,7 +4139,7 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>李鹏</v>
+        <v>万珊珊</v>
       </c>
       <c r="B81" t="str">
         <v/>
@@ -4148,34 +4148,34 @@
         <v/>
       </c>
       <c r="D81" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E81" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F81" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G81" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H81" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I81" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J81" t="str">
         <v>已到</v>
       </c>
       <c r="K81" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L81" t="str">
         <v/>
       </c>
       <c r="M81" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N81" t="str">
         <v/>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>万珊珊</v>
+        <v>徐海花</v>
       </c>
       <c r="B82" t="str">
         <v/>
@@ -4195,34 +4195,34 @@
         <v/>
       </c>
       <c r="D82" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E82" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F82" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G82" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H82" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I82" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J82" t="str">
         <v>已到</v>
       </c>
       <c r="K82" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L82" t="str">
         <v/>
       </c>
       <c r="M82" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N82" t="str">
         <v/>
@@ -4233,7 +4233,7 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>徐海花</v>
+        <v>龚志勇</v>
       </c>
       <c r="B83" t="str">
         <v/>
@@ -4242,133 +4242,39 @@
         <v/>
       </c>
       <c r="D83" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="E83" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="F83" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="G83" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="H83" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="I83" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="J83" t="str">
         <v>已到</v>
       </c>
       <c r="K83" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="L83" t="str">
         <v/>
       </c>
       <c r="M83" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="N83" t="str">
         <v/>
       </c>
       <c r="O83" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="str">
-        <v>肖云川</v>
-      </c>
-      <c r="B84" t="str">
-        <v/>
-      </c>
-      <c r="C84" t="str">
-        <v/>
-      </c>
-      <c r="D84" t="str">
-        <v>已到</v>
-      </c>
-      <c r="E84" t="str">
-        <v>已到</v>
-      </c>
-      <c r="F84" t="str">
-        <v>已到</v>
-      </c>
-      <c r="G84" t="str">
-        <v>已到</v>
-      </c>
-      <c r="H84" t="str">
-        <v>已到</v>
-      </c>
-      <c r="I84" t="str">
-        <v>已到</v>
-      </c>
-      <c r="J84" t="str">
-        <v>已到</v>
-      </c>
-      <c r="K84" t="str">
-        <v/>
-      </c>
-      <c r="L84" t="str">
-        <v/>
-      </c>
-      <c r="M84" t="str">
-        <v>已到</v>
-      </c>
-      <c r="N84" t="str">
-        <v/>
-      </c>
-      <c r="O84" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="str">
-        <v>龚志勇</v>
-      </c>
-      <c r="B85" t="str">
-        <v/>
-      </c>
-      <c r="C85" t="str">
-        <v/>
-      </c>
-      <c r="D85" t="str">
-        <v>未到</v>
-      </c>
-      <c r="E85" t="str">
-        <v>已到</v>
-      </c>
-      <c r="F85" t="str">
-        <v>未到</v>
-      </c>
-      <c r="G85" t="str">
-        <v>已到</v>
-      </c>
-      <c r="H85" t="str">
-        <v>已到</v>
-      </c>
-      <c r="I85" t="str">
-        <v>已到</v>
-      </c>
-      <c r="J85" t="str">
-        <v>请假</v>
-      </c>
-      <c r="K85" t="str">
-        <v/>
-      </c>
-      <c r="L85" t="str">
-        <v/>
-      </c>
-      <c r="M85" t="str">
-        <v>已到</v>
-      </c>
-      <c r="N85" t="str">
-        <v/>
-      </c>
-      <c r="O85" t="str">
         <v/>
       </c>
     </row>
@@ -4384,7 +4290,7 @@
     <mergeCell ref="N1:O1"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O85"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O83"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/attend_server/data.xlsx
+++ b/attend_server/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="周点到数据" sheetId="1" r:id="rId1"/>
+    <sheet name="本周点到数据" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -485,7 +485,7 @@
         <v/>
       </c>
       <c r="E3" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="F3" t="str">
         <v/>
@@ -500,10 +500,10 @@
         <v/>
       </c>
       <c r="J3" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K3" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L3" t="str">
         <v/>
@@ -535,13 +535,13 @@
         <v/>
       </c>
       <c r="F4" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="G4" t="str">
         <v/>
       </c>
       <c r="H4" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="I4" t="str">
         <v/>
@@ -550,7 +550,7 @@
         <v>已到</v>
       </c>
       <c r="K4" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L4" t="str">
         <v/>
@@ -579,7 +579,7 @@
         <v/>
       </c>
       <c r="E5" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="F5" t="str">
         <v/>
@@ -594,10 +594,10 @@
         <v/>
       </c>
       <c r="J5" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K5" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L5" t="str">
         <v/>
@@ -626,7 +626,7 @@
         <v/>
       </c>
       <c r="E6" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="F6" t="str">
         <v/>
@@ -641,10 +641,10 @@
         <v/>
       </c>
       <c r="J6" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K6" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L6" t="str">
         <v/>
@@ -673,16 +673,16 @@
         <v/>
       </c>
       <c r="E7" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="F7" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="G7" t="str">
         <v/>
       </c>
       <c r="H7" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="I7" t="str">
         <v/>
@@ -691,7 +691,7 @@
         <v>已到</v>
       </c>
       <c r="K7" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L7" t="str">
         <v/>
@@ -735,10 +735,10 @@
         <v/>
       </c>
       <c r="J8" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K8" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L8" t="str">
         <v/>
@@ -782,10 +782,10 @@
         <v/>
       </c>
       <c r="J9" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K9" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L9" t="str">
         <v/>
@@ -814,16 +814,16 @@
         <v/>
       </c>
       <c r="E10" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="F10" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="G10" t="str">
         <v/>
       </c>
       <c r="H10" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="I10" t="str">
         <v/>
@@ -832,7 +832,7 @@
         <v>已到</v>
       </c>
       <c r="K10" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L10" t="str">
         <v/>
@@ -876,10 +876,10 @@
         <v/>
       </c>
       <c r="J11" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K11" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L11" t="str">
         <v/>
@@ -923,10 +923,10 @@
         <v/>
       </c>
       <c r="J12" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K12" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L12" t="str">
         <v/>
@@ -970,10 +970,10 @@
         <v/>
       </c>
       <c r="J13" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K13" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L13" t="str">
         <v/>
@@ -1002,7 +1002,7 @@
         <v/>
       </c>
       <c r="E14" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="F14" t="str">
         <v/>
@@ -1017,10 +1017,10 @@
         <v/>
       </c>
       <c r="J14" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K14" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L14" t="str">
         <v/>
@@ -1049,16 +1049,16 @@
         <v/>
       </c>
       <c r="E15" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="F15" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="G15" t="str">
         <v/>
       </c>
       <c r="H15" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="I15" t="str">
         <v/>
@@ -1067,7 +1067,7 @@
         <v>已到</v>
       </c>
       <c r="K15" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L15" t="str">
         <v/>
@@ -1111,10 +1111,10 @@
         <v/>
       </c>
       <c r="J16" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K16" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L16" t="str">
         <v/>
@@ -1158,10 +1158,10 @@
         <v/>
       </c>
       <c r="J17" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K17" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L17" t="str">
         <v/>
@@ -1193,13 +1193,13 @@
         <v/>
       </c>
       <c r="F18" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="G18" t="str">
         <v/>
       </c>
       <c r="H18" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="I18" t="str">
         <v/>
@@ -1208,7 +1208,7 @@
         <v>已到</v>
       </c>
       <c r="K18" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L18" t="str">
         <v/>
@@ -1237,7 +1237,7 @@
         <v/>
       </c>
       <c r="E19" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="F19" t="str">
         <v/>
@@ -1252,10 +1252,10 @@
         <v/>
       </c>
       <c r="J19" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K19" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L19" t="str">
         <v/>
@@ -1287,13 +1287,13 @@
         <v/>
       </c>
       <c r="F20" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="G20" t="str">
         <v/>
       </c>
       <c r="H20" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="I20" t="str">
         <v/>
@@ -1302,7 +1302,7 @@
         <v>已到</v>
       </c>
       <c r="K20" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L20" t="str">
         <v/>
@@ -1331,16 +1331,16 @@
         <v/>
       </c>
       <c r="E21" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="F21" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="G21" t="str">
         <v/>
       </c>
       <c r="H21" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="I21" t="str">
         <v/>
@@ -1349,7 +1349,7 @@
         <v>已到</v>
       </c>
       <c r="K21" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L21" t="str">
         <v/>
@@ -1378,16 +1378,16 @@
         <v/>
       </c>
       <c r="E22" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="F22" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="G22" t="str">
         <v/>
       </c>
       <c r="H22" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="I22" t="str">
         <v/>
@@ -1396,7 +1396,7 @@
         <v>已到</v>
       </c>
       <c r="K22" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L22" t="str">
         <v/>
@@ -1440,10 +1440,10 @@
         <v/>
       </c>
       <c r="J23" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K23" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L23" t="str">
         <v/>
@@ -1472,7 +1472,7 @@
         <v/>
       </c>
       <c r="E24" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="F24" t="str">
         <v/>
@@ -1487,10 +1487,10 @@
         <v/>
       </c>
       <c r="J24" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K24" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L24" t="str">
         <v/>
@@ -1534,10 +1534,10 @@
         <v/>
       </c>
       <c r="J25" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K25" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L25" t="str">
         <v/>
@@ -1569,13 +1569,13 @@
         <v/>
       </c>
       <c r="F26" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="G26" t="str">
         <v/>
       </c>
       <c r="H26" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="I26" t="str">
         <v/>
@@ -1584,7 +1584,7 @@
         <v>已到</v>
       </c>
       <c r="K26" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L26" t="str">
         <v/>
@@ -1628,10 +1628,10 @@
         <v/>
       </c>
       <c r="J27" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K27" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L27" t="str">
         <v/>
@@ -1663,13 +1663,13 @@
         <v/>
       </c>
       <c r="F28" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="G28" t="str">
         <v/>
       </c>
       <c r="H28" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="I28" t="str">
         <v/>
@@ -1678,7 +1678,7 @@
         <v>已到</v>
       </c>
       <c r="K28" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L28" t="str">
         <v/>
@@ -1707,7 +1707,7 @@
         <v/>
       </c>
       <c r="E29" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="F29" t="str">
         <v/>
@@ -1722,10 +1722,10 @@
         <v/>
       </c>
       <c r="J29" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K29" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L29" t="str">
         <v/>
@@ -1754,16 +1754,16 @@
         <v/>
       </c>
       <c r="E30" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="F30" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="G30" t="str">
         <v/>
       </c>
       <c r="H30" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="I30" t="str">
         <v/>
@@ -1772,7 +1772,7 @@
         <v>已到</v>
       </c>
       <c r="K30" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L30" t="str">
         <v/>
@@ -1816,10 +1816,10 @@
         <v/>
       </c>
       <c r="J31" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K31" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L31" t="str">
         <v/>
@@ -1863,10 +1863,10 @@
         <v/>
       </c>
       <c r="J32" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K32" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L32" t="str">
         <v/>
@@ -1910,10 +1910,10 @@
         <v/>
       </c>
       <c r="J33" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K33" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L33" t="str">
         <v/>
@@ -1945,13 +1945,13 @@
         <v/>
       </c>
       <c r="F34" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="G34" t="str">
         <v/>
       </c>
       <c r="H34" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="I34" t="str">
         <v/>
@@ -1960,7 +1960,7 @@
         <v>已到</v>
       </c>
       <c r="K34" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L34" t="str">
         <v/>
@@ -1989,16 +1989,16 @@
         <v/>
       </c>
       <c r="E35" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="F35" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="G35" t="str">
         <v/>
       </c>
       <c r="H35" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="I35" t="str">
         <v/>
@@ -2007,7 +2007,7 @@
         <v>已到</v>
       </c>
       <c r="K35" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L35" t="str">
         <v/>
@@ -2036,7 +2036,7 @@
         <v/>
       </c>
       <c r="E36" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="F36" t="str">
         <v/>
@@ -2051,10 +2051,10 @@
         <v/>
       </c>
       <c r="J36" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K36" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L36" t="str">
         <v/>
@@ -2098,10 +2098,10 @@
         <v/>
       </c>
       <c r="J37" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K37" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L37" t="str">
         <v/>
@@ -2130,16 +2130,16 @@
         <v/>
       </c>
       <c r="E38" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="F38" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="G38" t="str">
         <v/>
       </c>
       <c r="H38" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="I38" t="str">
         <v/>
@@ -2148,7 +2148,7 @@
         <v>已到</v>
       </c>
       <c r="K38" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L38" t="str">
         <v/>
@@ -2180,13 +2180,13 @@
         <v/>
       </c>
       <c r="F39" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="G39" t="str">
         <v/>
       </c>
       <c r="H39" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="I39" t="str">
         <v/>
@@ -2195,7 +2195,7 @@
         <v>已到</v>
       </c>
       <c r="K39" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L39" t="str">
         <v/>
@@ -2239,10 +2239,10 @@
         <v/>
       </c>
       <c r="J40" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K40" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L40" t="str">
         <v/>
@@ -2271,16 +2271,16 @@
         <v/>
       </c>
       <c r="E41" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="F41" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="G41" t="str">
         <v/>
       </c>
       <c r="H41" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="I41" t="str">
         <v/>
@@ -2289,7 +2289,7 @@
         <v>已到</v>
       </c>
       <c r="K41" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L41" t="str">
         <v/>
@@ -2333,10 +2333,10 @@
         <v/>
       </c>
       <c r="J42" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K42" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L42" t="str">
         <v/>
@@ -2380,10 +2380,10 @@
         <v/>
       </c>
       <c r="J43" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K43" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L43" t="str">
         <v/>
@@ -2415,13 +2415,13 @@
         <v/>
       </c>
       <c r="F44" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="G44" t="str">
         <v/>
       </c>
       <c r="H44" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="I44" t="str">
         <v/>
@@ -2430,7 +2430,7 @@
         <v>已到</v>
       </c>
       <c r="K44" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L44" t="str">
         <v/>
@@ -2474,10 +2474,10 @@
         <v/>
       </c>
       <c r="J45" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K45" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L45" t="str">
         <v/>
@@ -2521,10 +2521,10 @@
         <v/>
       </c>
       <c r="J46" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K46" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L46" t="str">
         <v/>
@@ -2553,16 +2553,16 @@
         <v/>
       </c>
       <c r="E47" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="F47" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="G47" t="str">
         <v/>
       </c>
       <c r="H47" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="I47" t="str">
         <v/>
@@ -2571,7 +2571,7 @@
         <v>已到</v>
       </c>
       <c r="K47" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L47" t="str">
         <v/>
@@ -2603,13 +2603,13 @@
         <v/>
       </c>
       <c r="F48" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="G48" t="str">
         <v/>
       </c>
       <c r="H48" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="I48" t="str">
         <v/>
@@ -2618,7 +2618,7 @@
         <v>已到</v>
       </c>
       <c r="K48" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L48" t="str">
         <v/>
@@ -2662,10 +2662,10 @@
         <v/>
       </c>
       <c r="J49" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K49" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L49" t="str">
         <v/>
@@ -2709,10 +2709,10 @@
         <v/>
       </c>
       <c r="J50" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K50" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L50" t="str">
         <v/>
@@ -2756,10 +2756,10 @@
         <v/>
       </c>
       <c r="J51" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K51" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L51" t="str">
         <v/>
@@ -2791,13 +2791,13 @@
         <v/>
       </c>
       <c r="F52" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="G52" t="str">
         <v/>
       </c>
       <c r="H52" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="I52" t="str">
         <v/>
@@ -2806,7 +2806,7 @@
         <v>已到</v>
       </c>
       <c r="K52" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L52" t="str">
         <v/>
@@ -2835,7 +2835,7 @@
         <v/>
       </c>
       <c r="E53" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="F53" t="str">
         <v/>
@@ -2850,10 +2850,10 @@
         <v/>
       </c>
       <c r="J53" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K53" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L53" t="str">
         <v/>
@@ -2885,13 +2885,13 @@
         <v/>
       </c>
       <c r="F54" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="G54" t="str">
         <v/>
       </c>
       <c r="H54" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="I54" t="str">
         <v/>
@@ -2900,7 +2900,7 @@
         <v>已到</v>
       </c>
       <c r="K54" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L54" t="str">
         <v/>
@@ -2944,10 +2944,10 @@
         <v/>
       </c>
       <c r="J55" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K55" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L55" t="str">
         <v/>
@@ -2976,16 +2976,16 @@
         <v/>
       </c>
       <c r="E56" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="F56" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="G56" t="str">
         <v/>
       </c>
       <c r="H56" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="I56" t="str">
         <v/>
@@ -2994,7 +2994,7 @@
         <v>已到</v>
       </c>
       <c r="K56" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L56" t="str">
         <v/>
@@ -3023,16 +3023,16 @@
         <v/>
       </c>
       <c r="E57" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="F57" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="G57" t="str">
         <v/>
       </c>
       <c r="H57" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="I57" t="str">
         <v/>
@@ -3041,7 +3041,7 @@
         <v>已到</v>
       </c>
       <c r="K57" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L57" t="str">
         <v/>
@@ -3070,7 +3070,7 @@
         <v/>
       </c>
       <c r="E58" t="str">
-        <v/>
+        <v>请假</v>
       </c>
       <c r="F58" t="str">
         <v/>
@@ -3085,10 +3085,10 @@
         <v/>
       </c>
       <c r="J58" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K58" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L58" t="str">
         <v/>
@@ -3120,13 +3120,13 @@
         <v/>
       </c>
       <c r="F59" t="str">
-        <v/>
+        <v>请假</v>
       </c>
       <c r="G59" t="str">
         <v/>
       </c>
       <c r="H59" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="I59" t="str">
         <v/>
@@ -3135,7 +3135,7 @@
         <v>已到</v>
       </c>
       <c r="K59" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L59" t="str">
         <v/>
@@ -3164,16 +3164,16 @@
         <v/>
       </c>
       <c r="E60" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="F60" t="str">
-        <v/>
+        <v>未到</v>
       </c>
       <c r="G60" t="str">
         <v/>
       </c>
       <c r="H60" t="str">
-        <v/>
+        <v>已到</v>
       </c>
       <c r="I60" t="str">
         <v/>
@@ -3182,7 +3182,7 @@
         <v>已到</v>
       </c>
       <c r="K60" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L60" t="str">
         <v/>
@@ -3211,7 +3211,7 @@
         <v/>
       </c>
       <c r="E61" t="str">
-        <v/>
+        <v>未到</v>
       </c>
       <c r="F61" t="str">
         <v/>
@@ -3226,10 +3226,10 @@
         <v/>
       </c>
       <c r="J61" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K61" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L61" t="str">
         <v/>
@@ -3273,10 +3273,10 @@
         <v/>
       </c>
       <c r="J62" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K62" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L62" t="str">
         <v/>
@@ -3320,10 +3320,10 @@
         <v/>
       </c>
       <c r="J63" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K63" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L63" t="str">
         <v/>
@@ -3367,10 +3367,10 @@
         <v/>
       </c>
       <c r="J64" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K64" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L64" t="str">
         <v/>
@@ -3414,10 +3414,10 @@
         <v/>
       </c>
       <c r="J65" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K65" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L65" t="str">
         <v/>
@@ -3461,10 +3461,10 @@
         <v/>
       </c>
       <c r="J66" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K66" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L66" t="str">
         <v/>
@@ -3508,10 +3508,10 @@
         <v/>
       </c>
       <c r="J67" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K67" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L67" t="str">
         <v/>
@@ -3555,10 +3555,10 @@
         <v/>
       </c>
       <c r="J68" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K68" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L68" t="str">
         <v/>
@@ -3602,10 +3602,10 @@
         <v/>
       </c>
       <c r="J69" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K69" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L69" t="str">
         <v/>
@@ -3649,10 +3649,10 @@
         <v/>
       </c>
       <c r="J70" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K70" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L70" t="str">
         <v/>
@@ -3696,10 +3696,10 @@
         <v/>
       </c>
       <c r="J71" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K71" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L71" t="str">
         <v/>
@@ -3743,10 +3743,10 @@
         <v/>
       </c>
       <c r="J72" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K72" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L72" t="str">
         <v/>
@@ -3790,10 +3790,10 @@
         <v/>
       </c>
       <c r="J73" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K73" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L73" t="str">
         <v/>
@@ -3837,10 +3837,10 @@
         <v/>
       </c>
       <c r="J74" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K74" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L74" t="str">
         <v/>
@@ -3884,10 +3884,10 @@
         <v/>
       </c>
       <c r="J75" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K75" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L75" t="str">
         <v/>
@@ -3931,10 +3931,10 @@
         <v/>
       </c>
       <c r="J76" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K76" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L76" t="str">
         <v/>
@@ -3978,10 +3978,10 @@
         <v/>
       </c>
       <c r="J77" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K77" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L77" t="str">
         <v/>
@@ -4025,10 +4025,10 @@
         <v/>
       </c>
       <c r="J78" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K78" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L78" t="str">
         <v/>
@@ -4072,10 +4072,10 @@
         <v/>
       </c>
       <c r="J79" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K79" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L79" t="str">
         <v/>
@@ -4119,10 +4119,10 @@
         <v/>
       </c>
       <c r="J80" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K80" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L80" t="str">
         <v/>
@@ -4166,10 +4166,10 @@
         <v/>
       </c>
       <c r="J81" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K81" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L81" t="str">
         <v/>
@@ -4213,10 +4213,10 @@
         <v/>
       </c>
       <c r="J82" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K82" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L82" t="str">
         <v/>
@@ -4260,10 +4260,10 @@
         <v/>
       </c>
       <c r="J83" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="K83" t="str">
-        <v>已到</v>
+        <v/>
       </c>
       <c r="L83" t="str">
         <v/>
